--- a/uclbrt/qrmaster/syn/excel.xlsx
+++ b/uclbrt/qrmaster/syn/excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>锁掌柜登录账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,6 +124,57 @@
   </si>
   <si>
     <t>bbc69d27003568a7a94626ce4337bc9d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>hotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海陵岛客栈-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lyw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间夜房数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海陵岛客栈-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美住房间信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单人间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +211,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF008080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -195,6 +251,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,20 +559,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="9.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
@@ -524,10 +586,10 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -544,16 +606,16 @@
         <v>13326528030</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -573,13 +635,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -601,80 +663,115 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2">
         <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2">
-        <v>320700</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>333</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1">
-        <v>320704</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>320700</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>320704</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>13480251015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1">
-        <v>13480251015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
     </row>

--- a/uclbrt/qrmaster/syn/excel.xlsx
+++ b/uclbrt/qrmaster/syn/excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>锁掌柜登录账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海陵岛客栈-测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广州市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海陵岛客栈-测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美住房间信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +163,10 @@
   </si>
   <si>
     <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海客栈-有为测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -254,9 +246,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,7 +551,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" activeCellId="1" sqref="D6 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -570,7 +559,7 @@
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
@@ -586,10 +575,10 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -597,25 +586,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>13326528030</v>
+        <v>13480251015</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>13326528030</v>
+        <v>13480251015</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -629,19 +618,19 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -652,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>86</v>
@@ -660,30 +649,30 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
@@ -691,39 +680,39 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>320700</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>320704</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -731,13 +720,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
         <v>5</v>
@@ -745,23 +734,23 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>13480251015</v>
@@ -769,7 +758,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
